--- a/data/eBooks-main/current/containerized-lifecycle/Containerized-Docker-Application-Lifecycle-with-Microsoft-Platform-and-Tools.pdf.hwaifs/tables/py/gmft/df.tables-2.xlsx
+++ b/data/eBooks-main/current/containerized-lifecycle/Containerized-Docker-Application-Lifecycle-with-Microsoft-Platform-and-Tools.pdf.hwaifs/tables/py/gmft/df.tables-2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,6 @@
     <row r="1">
       <c r="B1" t="inlineStr"/>
       <c r="C1" t="inlineStr"/>
-      <c r="D1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -440,7 +439,6 @@
           <t>89</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -448,17 +446,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Run, manage, and monitor Docker production environments</t>
+          <t>Run, manage, and monitor Docker production environments ........................................</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>93</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>........................................</t>
         </is>
       </c>
     </row>
@@ -473,12 +466,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>...............................</t>
+          <t>............................... 93</t>
         </is>
       </c>
     </row>
@@ -488,17 +476,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Introduction to orchestrators, schedulers, and container clusters</t>
+          <t>Introduction to orchestrators, schedulers, and container clusters ...............................................................</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>93</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>...............................................................</t>
         </is>
       </c>
     </row>
@@ -508,17 +491,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Manage production Docker environments</t>
+          <t>Manage production Docker environments ................................................................................................................</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>94</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>................................................................................................................</t>
         </is>
       </c>
     </row>
@@ -528,17 +506,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Container Service and management</t>
+          <t>Container Service and management tools.............................................................................................................</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>94</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>tools.............................................................................................................</t>
         </is>
       </c>
     </row>
@@ -556,7 +529,6 @@
           <t>95</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -564,17 +536,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Monitor containerized application services</t>
+          <t>Monitor containerized application services ...............................................................................................................</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>96</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>...............................................................................................................</t>
         </is>
       </c>
     </row>
@@ -592,7 +559,6 @@
           <t>96</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -608,7 +574,6 @@
           <t>96</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
